--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek2LDOD1BRNTOTK50percentRL.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek2LDOD1BRNTOTK50percentRL.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="204" windowWidth="14340" windowHeight="4332" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -184,9 +189,6 @@
     <t>DO NOT TOUCH - TAX PAYROLL AUTOMATION</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Updated Income tax calculation script creation scenarios.xlsx</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -203,12 +205,15 @@
   </si>
   <si>
     <t>Weekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\Updated Income tax calculation script creation scenarios.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -476,6 +481,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -523,7 +531,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -556,9 +564,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,6 +616,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -773,15 +815,15 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,7 +837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -809,7 +851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -823,7 +865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -851,16 +893,16 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,7 +928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -907,7 +949,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>20</v>
       </c>
@@ -928,7 +970,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>21</v>
       </c>
@@ -949,7 +991,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>22</v>
       </c>
@@ -970,7 +1012,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>23</v>
       </c>
@@ -992,7 +1034,7 @@
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>34</v>
       </c>
@@ -1014,7 +1056,7 @@
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>35</v>
       </c>
@@ -1034,7 +1076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>36</v>
       </c>
@@ -1054,7 +1096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>37</v>
       </c>
@@ -1074,7 +1116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>38</v>
       </c>
@@ -1094,7 +1136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>39</v>
       </c>
@@ -1114,7 +1156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>40</v>
       </c>
@@ -1134,7 +1176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>41</v>
       </c>
@@ -1154,7 +1196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>42</v>
       </c>
@@ -1183,23 +1225,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C15"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
@@ -1240,7 +1282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="31" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="31" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>53</v>
       </c>
@@ -1248,34 +1290,34 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>58</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="G2" s="29" t="s">
         <v>54</v>
       </c>
       <c r="H2" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="J2" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="30" t="s">
-        <v>57</v>
-      </c>
       <c r="K2" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>53</v>
       </c>
@@ -1283,34 +1325,34 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>58</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>54</v>
       </c>
       <c r="H3" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="J3" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="30" t="s">
-        <v>57</v>
-      </c>
       <c r="K3" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>53</v>
       </c>
@@ -1318,34 +1360,34 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>58</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>54</v>
       </c>
       <c r="H4" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="J4" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="30" t="s">
-        <v>57</v>
-      </c>
       <c r="K4" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>53</v>
       </c>
@@ -1353,34 +1395,34 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>58</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>54</v>
       </c>
       <c r="H5" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="J5" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="30" t="s">
-        <v>57</v>
-      </c>
       <c r="K5" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>53</v>
       </c>
@@ -1388,34 +1430,34 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>58</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>54</v>
       </c>
       <c r="H6" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="J6" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="30" t="s">
-        <v>57</v>
-      </c>
       <c r="K6" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>53</v>
       </c>
@@ -1423,34 +1465,34 @@
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>58</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>54</v>
       </c>
       <c r="H7" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="J7" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="30" t="s">
-        <v>57</v>
-      </c>
       <c r="K7" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>53</v>
       </c>
@@ -1458,34 +1500,34 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>58</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>54</v>
       </c>
       <c r="H8" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="J8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="30" t="s">
-        <v>57</v>
-      </c>
       <c r="K8" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>53</v>
       </c>
@@ -1493,34 +1535,34 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>58</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>54</v>
       </c>
       <c r="H9" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="J9" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="30" t="s">
-        <v>57</v>
-      </c>
       <c r="K9" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>53</v>
       </c>
@@ -1528,34 +1570,34 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>58</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>54</v>
       </c>
       <c r="H10" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="J10" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="30" t="s">
-        <v>57</v>
-      </c>
       <c r="K10" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>53</v>
       </c>
@@ -1563,34 +1605,34 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>58</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>54</v>
       </c>
       <c r="H11" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="J11" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="30" t="s">
-        <v>57</v>
-      </c>
       <c r="K11" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>53</v>
       </c>
@@ -1598,34 +1640,34 @@
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>58</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>54</v>
       </c>
       <c r="H12" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="J12" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="30" t="s">
-        <v>57</v>
-      </c>
       <c r="K12" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>53</v>
       </c>
@@ -1633,34 +1675,34 @@
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>58</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>54</v>
       </c>
       <c r="H13" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="J13" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="30" t="s">
-        <v>57</v>
-      </c>
       <c r="K13" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>53</v>
       </c>
@@ -1668,34 +1710,34 @@
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>58</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>54</v>
       </c>
       <c r="H14" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="J14" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="30" t="s">
-        <v>57</v>
-      </c>
       <c r="K14" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>53</v>
       </c>
@@ -1703,28 +1745,28 @@
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>58</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>54</v>
       </c>
       <c r="H15" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="J15" s="30" t="s">
         <v>56</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>57</v>
       </c>
       <c r="K15" s="31" t="s">
         <v>4</v>
@@ -1739,21 +1781,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1794,7 +1836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="36" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="36" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>53</v>
       </c>
@@ -1802,28 +1844,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>58</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>54</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K2" s="35" t="s">
         <v>4</v>
